--- a/1_政策宣傳執情形/輸出圖表/所有部會按媒體類型預算金額.xlsx
+++ b/1_政策宣傳執情形/輸出圖表/所有部會按媒體類型預算金額.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
   <si>
     <t>其他</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>雜誌</t>
+  </si>
+  <si>
+    <t>電影院</t>
   </si>
   <si>
     <t>電視</t>
@@ -422,313 +425,341 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <outlinePr summaryRight="1" summaryBelow="1"/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1" activeCell="A1"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" width="9.10" max="1"/>
-    <col min="2" width="9.10" max="2"/>
-    <col min="3" width="9.10" max="3"/>
-    <col min="4" width="9.10" max="4"/>
-    <col min="5" width="9.10" max="5"/>
-    <col min="6" width="9.10" max="6"/>
-    <col min="7" width="9.10" max="7"/>
-    <col min="8" width="9.10" max="8"/>
-    <col min="9" width="9.10" max="9"/>
-    <col min="10" width="9.10" max="10"/>
+    <col width="9.10" max="1" min="1"/>
+    <col width="9.10" max="2" min="2"/>
+    <col width="9.10" max="3" min="3"/>
+    <col width="9.10" max="4" min="4"/>
+    <col width="9.10" max="5" min="5"/>
+    <col width="9.10" max="6" min="6"/>
+    <col width="9.10" max="7" min="7"/>
+    <col width="9.10" max="8" min="8"/>
+    <col width="9.10" max="9" min="9"/>
+    <col width="9.10" max="10" min="10"/>
+    <col width="9.10" max="11" min="11"/>
   </cols>
   <sheetData>
-    <row spans="1:10" r="1">
-      <c s="1" t="s" r="B1">
+    <row r="1" spans="1:11">
+      <c t="s" s="1" r="B1">
         <v>4</v>
       </c>
-      <c s="1" t="s" r="C1">
+      <c t="s" s="1" r="C1">
         <v>15</v>
       </c>
-      <c s="1" t="s" r="D1">
+      <c t="s" s="1" r="D1">
+        <v>17</v>
+      </c>
+      <c t="s" s="1" r="E1">
+        <v>6</v>
+      </c>
+      <c t="s" s="1" r="F1">
+        <v>12</v>
+      </c>
+      <c t="s" s="1" r="G1">
+        <v>10</v>
+      </c>
+      <c t="s" s="1" r="H1">
         <v>16</v>
       </c>
-      <c s="1" t="s" r="E1">
-        <v>6</v>
-      </c>
-      <c s="1" t="s" r="F1">
-        <v>12</v>
-      </c>
-      <c s="1" t="s" r="G1">
-        <v>10</v>
-      </c>
-      <c s="1" t="s" r="H1">
+      <c t="s" s="1" r="I1">
         <v>9</v>
       </c>
-      <c s="1" t="s" r="I1">
+      <c t="s" s="1" r="J1">
         <v>0</v>
       </c>
-      <c s="1" t="s" r="J1">
+      <c t="s" s="1" r="K1">
         <v>11</v>
       </c>
     </row>
-    <row spans="1:10" r="2">
-      <c s="1" t="s" r="A2">
+    <row r="2" spans="1:11">
+      <c t="s" s="1" r="A2">
+        <v>5</v>
+      </c>
+      <c t="n" r="B2">
+        <v>3712430.0</v>
+      </c>
+      <c t="n" r="C2">
+        <v>845195.0</v>
+      </c>
+      <c t="n" r="D2">
+        <v>4516432.0</v>
+      </c>
+      <c t="n" r="E2">
+        <v>698232</v>
+      </c>
+      <c t="n" r="F2">
+        <v>5530000.0</v>
+      </c>
+      <c t="n" r="G2">
+        <v>0.0</v>
+      </c>
+      <c t="n" r="H2">
+        <v>1221318.0</v>
+      </c>
+      <c t="n" r="I2">
+        <v>1819752.0</v>
+      </c>
+      <c t="n" r="J2">
+        <v>12706586.0</v>
+      </c>
+      <c t="n" r="K2">
+        <v>31049945.0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c t="s" s="1" r="A3">
+        <v>7</v>
+      </c>
+      <c t="n" r="B3">
+        <v>15936732.0</v>
+      </c>
+      <c t="n" r="C3">
+        <v>5275732.0</v>
+      </c>
+      <c t="n" r="D3">
+        <v>20659718.0</v>
+      </c>
+      <c t="n" r="E3">
+        <v>2714775</v>
+      </c>
+      <c t="n" r="F3">
+        <v>3212967.0</v>
+      </c>
+      <c t="n" r="G3">
+        <v>2552200.0</v>
+      </c>
+      <c t="n" r="H3">
+        <v>816667.0</v>
+      </c>
+      <c t="n" r="I3">
+        <v>265000.0</v>
+      </c>
+      <c t="n" r="J3">
+        <v>39046272.0</v>
+      </c>
+      <c t="n" r="K3">
+        <v>90480063.0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c t="s" s="1" r="A4">
+        <v>2</v>
+      </c>
+      <c t="n" r="B4">
+        <v>1198834.0</v>
+      </c>
+      <c t="n" r="C4">
+        <v>936300.0</v>
+      </c>
+      <c t="n" r="D4">
+        <v>10849260.0</v>
+      </c>
+      <c t="n" r="E4">
+        <v>0</v>
+      </c>
+      <c t="n" r="F4">
+        <v>1248000.0</v>
+      </c>
+      <c t="n" r="G4">
+        <v>0.0</v>
+      </c>
+      <c t="n" r="H4">
+        <v>0.0</v>
+      </c>
+      <c t="n" r="I4">
+        <v>0.0</v>
+      </c>
+      <c t="n" r="J4">
+        <v>99500.0</v>
+      </c>
+      <c t="n" r="K4">
+        <v>14331894.0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c t="s" s="1" r="A5">
+        <v>8</v>
+      </c>
+      <c t="n" r="B5">
+        <v>521100.0</v>
+      </c>
+      <c t="n" r="C5">
+        <v>260000.0</v>
+      </c>
+      <c t="n" r="D5">
+        <v>2012000.0</v>
+      </c>
+      <c t="n" r="E5">
+        <v>132358</v>
+      </c>
+      <c t="n" r="F5">
+        <v>523235.0</v>
+      </c>
+      <c t="n" r="G5">
+        <v>686950.0</v>
+      </c>
+      <c t="n" r="H5">
+        <v>500000.0</v>
+      </c>
+      <c t="n" r="I5">
+        <v>0.0</v>
+      </c>
+      <c t="n" r="J5">
+        <v>787065.0</v>
+      </c>
+      <c t="n" r="K5">
+        <v>5422708.0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c t="s" s="1" r="A6">
+        <v>3</v>
+      </c>
+      <c t="n" r="B6">
+        <v>247000.0</v>
+      </c>
+      <c t="n" r="C6">
+        <v>1027500.0</v>
+      </c>
+      <c t="n" r="D6">
+        <v>1722500.0</v>
+      </c>
+      <c t="n" r="E6">
+        <v>293040</v>
+      </c>
+      <c t="n" r="F6">
+        <v>242500.0</v>
+      </c>
+      <c t="n" r="G6">
+        <v>193000.0</v>
+      </c>
+      <c t="n" r="H6">
+        <v>0.0</v>
+      </c>
+      <c t="n" r="I6">
+        <v>192000.0</v>
+      </c>
+      <c t="n" r="J6">
+        <v>556000.0</v>
+      </c>
+      <c t="n" r="K6">
+        <v>4473540.0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c t="s" s="1" r="A7">
         <v>1</v>
       </c>
-      <c t="n" r="B2">
+      <c t="n" r="B7">
         <v>4741486.0</v>
       </c>
-      <c t="n" r="C2">
+      <c t="n" r="C7">
         <v>1000000.0</v>
       </c>
-      <c t="n" r="D2">
-        <v>0.0</v>
-      </c>
-      <c t="n" r="E2">
+      <c t="n" r="D7">
+        <v>0.0</v>
+      </c>
+      <c t="n" r="E7">
         <v>4900000</v>
       </c>
-      <c t="n" r="F2">
-        <v>0.0</v>
-      </c>
-      <c t="n" r="G2">
-        <v>0.0</v>
-      </c>
-      <c t="n" r="H2">
-        <v>0.0</v>
-      </c>
-      <c t="n" r="I2">
-        <v>0.0</v>
-      </c>
-      <c t="n" r="J2">
+      <c t="n" r="F7">
+        <v>0.0</v>
+      </c>
+      <c t="n" r="G7">
+        <v>0.0</v>
+      </c>
+      <c t="n" r="H7">
+        <v>0.0</v>
+      </c>
+      <c t="n" r="I7">
+        <v>0.0</v>
+      </c>
+      <c t="n" r="J7">
+        <v>0.0</v>
+      </c>
+      <c t="n" r="K7">
         <v>10641486.0</v>
       </c>
     </row>
-    <row spans="1:10" r="3">
-      <c s="1" t="s" r="A3">
-        <v>3</v>
-      </c>
-      <c t="n" r="B3">
-        <v>247000.0</v>
-      </c>
-      <c t="n" r="C3">
-        <v>1027500.0</v>
-      </c>
-      <c t="n" r="D3">
-        <v>1722500.0</v>
-      </c>
-      <c t="n" r="E3">
-        <v>293040</v>
-      </c>
-      <c t="n" r="F3">
-        <v>242500.0</v>
-      </c>
-      <c t="n" r="G3">
-        <v>193000.0</v>
-      </c>
-      <c t="n" r="H3">
-        <v>192000.0</v>
-      </c>
-      <c t="n" r="I3">
-        <v>556000.0</v>
-      </c>
-      <c t="n" r="J3">
-        <v>4473540.0</v>
-      </c>
-    </row>
-    <row spans="1:10" r="4">
-      <c s="1" t="s" r="A4">
+    <row r="8" spans="1:11">
+      <c t="s" s="1" r="A8">
+        <v>14</v>
+      </c>
+      <c t="n" r="B8">
+        <v>6150277.0</v>
+      </c>
+      <c t="n" r="C8">
+        <v>14814746.0</v>
+      </c>
+      <c t="n" r="D8">
+        <v>19226000.0</v>
+      </c>
+      <c t="n" r="E8">
+        <v>5969029</v>
+      </c>
+      <c t="n" r="F8">
+        <v>0.0</v>
+      </c>
+      <c t="n" r="G8">
+        <v>10621325.0</v>
+      </c>
+      <c t="n" r="H8">
+        <v>0.0</v>
+      </c>
+      <c t="n" r="I8">
+        <v>0.0</v>
+      </c>
+      <c t="n" r="J8">
+        <v>488750.0</v>
+      </c>
+      <c t="n" r="K8">
+        <v>57270127.0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c t="s" s="1" r="A9">
         <v>13</v>
       </c>
-      <c t="n" r="B4">
+      <c t="n" r="B9">
         <v>57739988.0</v>
       </c>
-      <c t="n" r="C4">
+      <c t="n" r="C9">
         <v>34919105.0</v>
       </c>
-      <c t="n" r="D4">
+      <c t="n" r="D9">
         <v>35116527.0</v>
       </c>
-      <c t="n" r="E4">
+      <c t="n" r="E9">
         <v>19571965</v>
       </c>
-      <c t="n" r="F4">
-        <v>0.0</v>
-      </c>
-      <c t="n" r="G4">
+      <c t="n" r="F9">
+        <v>0.0</v>
+      </c>
+      <c t="n" r="G9">
         <v>10572755.0</v>
       </c>
-      <c t="n" r="H4">
-        <v>0.0</v>
-      </c>
-      <c t="n" r="I4">
+      <c t="n" r="H9">
+        <v>0.0</v>
+      </c>
+      <c t="n" r="I9">
+        <v>0.0</v>
+      </c>
+      <c t="n" r="J9">
         <v>78750.0</v>
       </c>
-      <c t="n" r="J4">
+      <c t="n" r="K9">
         <v>157999090.0</v>
-      </c>
-    </row>
-    <row spans="1:10" r="5">
-      <c s="1" t="s" r="A5">
-        <v>2</v>
-      </c>
-      <c t="n" r="B5">
-        <v>1198834.0</v>
-      </c>
-      <c t="n" r="C5">
-        <v>936300.0</v>
-      </c>
-      <c t="n" r="D5">
-        <v>10849260.0</v>
-      </c>
-      <c t="n" r="E5">
-        <v>0</v>
-      </c>
-      <c t="n" r="F5">
-        <v>1248000.0</v>
-      </c>
-      <c t="n" r="G5">
-        <v>0.0</v>
-      </c>
-      <c t="n" r="H5">
-        <v>0.0</v>
-      </c>
-      <c t="n" r="I5">
-        <v>99500.0</v>
-      </c>
-      <c t="n" r="J5">
-        <v>14331894.0</v>
-      </c>
-    </row>
-    <row spans="1:10" r="6">
-      <c s="1" t="s" r="A6">
-        <v>8</v>
-      </c>
-      <c t="n" r="B6">
-        <v>521100.0</v>
-      </c>
-      <c t="n" r="C6">
-        <v>260000.0</v>
-      </c>
-      <c t="n" r="D6">
-        <v>2012000.0</v>
-      </c>
-      <c t="n" r="E6">
-        <v>132358</v>
-      </c>
-      <c t="n" r="F6">
-        <v>523235.0</v>
-      </c>
-      <c t="n" r="G6">
-        <v>686950.0</v>
-      </c>
-      <c t="n" r="H6">
-        <v>0.0</v>
-      </c>
-      <c t="n" r="I6">
-        <v>1287065.0</v>
-      </c>
-      <c t="n" r="J6">
-        <v>5422708.0</v>
-      </c>
-    </row>
-    <row spans="1:10" r="7">
-      <c s="1" t="s" r="A7">
-        <v>14</v>
-      </c>
-      <c t="n" r="B7">
-        <v>6150277.0</v>
-      </c>
-      <c t="n" r="C7">
-        <v>14814746.0</v>
-      </c>
-      <c t="n" r="D7">
-        <v>19226000.0</v>
-      </c>
-      <c t="n" r="E7">
-        <v>5969029</v>
-      </c>
-      <c t="n" r="F7">
-        <v>0.0</v>
-      </c>
-      <c t="n" r="G7">
-        <v>10621325.0</v>
-      </c>
-      <c t="n" r="H7">
-        <v>0.0</v>
-      </c>
-      <c t="n" r="I7">
-        <v>488750.0</v>
-      </c>
-      <c t="n" r="J7">
-        <v>57270127.0</v>
-      </c>
-    </row>
-    <row spans="1:10" r="8">
-      <c s="1" t="s" r="A8">
-        <v>5</v>
-      </c>
-      <c t="n" r="B8">
-        <v>3712430.0</v>
-      </c>
-      <c t="n" r="C8">
-        <v>845195.0</v>
-      </c>
-      <c t="n" r="D8">
-        <v>4728076.0</v>
-      </c>
-      <c t="n" r="E8">
-        <v>698232</v>
-      </c>
-      <c t="n" r="F8">
-        <v>5530000.0</v>
-      </c>
-      <c t="n" r="G8">
-        <v>0.0</v>
-      </c>
-      <c t="n" r="H8">
-        <v>1819752.0</v>
-      </c>
-      <c t="n" r="I8">
-        <v>13716260.0</v>
-      </c>
-      <c t="n" r="J8">
-        <v>31049945.0</v>
-      </c>
-    </row>
-    <row spans="1:10" r="9">
-      <c s="1" t="s" r="A9">
-        <v>7</v>
-      </c>
-      <c t="n" r="B9">
-        <v>15936732.0</v>
-      </c>
-      <c t="n" r="C9">
-        <v>5275732.0</v>
-      </c>
-      <c t="n" r="D9">
-        <v>20659718.0</v>
-      </c>
-      <c t="n" r="E9">
-        <v>2714775</v>
-      </c>
-      <c t="n" r="F9">
-        <v>3212967.0</v>
-      </c>
-      <c t="n" r="G9">
-        <v>2552200.0</v>
-      </c>
-      <c t="n" r="H9">
-        <v>265000.0</v>
-      </c>
-      <c t="n" r="I9">
-        <v>39862939.0</v>
-      </c>
-      <c t="n" r="J9">
-        <v>90480063.0</v>
       </c>
     </row>
   </sheetData>

--- a/1_政策宣傳執情形/輸出圖表/所有部會按媒體類型預算金額.xlsx
+++ b/1_政策宣傳執情形/輸出圖表/所有部會按媒體類型預算金額.xlsx
@@ -20,13 +20,13 @@
     <t>其他</t>
   </si>
   <si>
-    <t>勞動部</t>
-  </si>
-  <si>
     <t>原民會</t>
   </si>
   <si>
     <t>原能會</t>
+  </si>
+  <si>
+    <t>國防部</t>
   </si>
   <si>
     <t>報紙</t>
@@ -425,32 +425,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryRight="1" summaryBelow="1"/>
   </sheetPr>
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection sqref="A1" activeCell="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col width="9.10" max="1" min="1"/>
-    <col width="9.10" max="2" min="2"/>
-    <col width="9.10" max="3" min="3"/>
-    <col width="9.10" max="4" min="4"/>
-    <col width="9.10" max="5" min="5"/>
-    <col width="9.10" max="6" min="6"/>
-    <col width="9.10" max="7" min="7"/>
-    <col width="9.10" max="8" min="8"/>
-    <col width="9.10" max="9" min="9"/>
-    <col width="9.10" max="10" min="10"/>
-    <col width="9.10" max="11" min="11"/>
+    <col width="9.10" min="1" max="1"/>
+    <col width="9.10" min="2" max="2"/>
+    <col width="9.10" min="3" max="3"/>
+    <col width="9.10" min="4" max="4"/>
+    <col width="9.10" min="5" max="5"/>
+    <col width="9.10" min="6" max="6"/>
+    <col width="9.10" min="7" max="7"/>
+    <col width="9.10" min="8" max="8"/>
+    <col width="9.10" min="9" max="9"/>
+    <col width="9.10" min="10" max="10"/>
+    <col width="9.10" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row spans="1:11" r="1">
       <c t="s" s="1" r="B1">
         <v>4</v>
       </c>
@@ -482,7 +482,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row spans="1:11" r="2">
       <c t="s" s="1" r="A2">
         <v>5</v>
       </c>
@@ -517,62 +517,62 @@
         <v>31049945.0</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row spans="1:11" r="3">
       <c t="s" s="1" r="A3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c t="n" r="B3">
-        <v>15936732.0</v>
+        <v>247000.0</v>
       </c>
       <c t="n" r="C3">
-        <v>5275732.0</v>
+        <v>1027500.0</v>
       </c>
       <c t="n" r="D3">
-        <v>20659718.0</v>
+        <v>1722500.0</v>
       </c>
       <c t="n" r="E3">
-        <v>2714775</v>
+        <v>293040</v>
       </c>
       <c t="n" r="F3">
-        <v>3212967.0</v>
+        <v>242500.0</v>
       </c>
       <c t="n" r="G3">
-        <v>2552200.0</v>
+        <v>193000.0</v>
       </c>
       <c t="n" r="H3">
-        <v>816667.0</v>
+        <v>0.0</v>
       </c>
       <c t="n" r="I3">
-        <v>265000.0</v>
+        <v>192000.0</v>
       </c>
       <c t="n" r="J3">
-        <v>39046272.0</v>
+        <v>556000.0</v>
       </c>
       <c t="n" r="K3">
-        <v>90480063.0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>4473540.0</v>
+      </c>
+    </row>
+    <row spans="1:11" r="4">
       <c t="s" s="1" r="A4">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c t="n" r="B4">
-        <v>1198834.0</v>
+        <v>57739988.0</v>
       </c>
       <c t="n" r="C4">
-        <v>936300.0</v>
+        <v>34919105.0</v>
       </c>
       <c t="n" r="D4">
-        <v>10849260.0</v>
+        <v>35116527.0</v>
       </c>
       <c t="n" r="E4">
-        <v>0</v>
+        <v>19571965</v>
       </c>
       <c t="n" r="F4">
-        <v>1248000.0</v>
+        <v>0.0</v>
       </c>
       <c t="n" r="G4">
-        <v>0.0</v>
+        <v>10572755.0</v>
       </c>
       <c t="n" r="H4">
         <v>0.0</v>
@@ -581,13 +581,13 @@
         <v>0.0</v>
       </c>
       <c t="n" r="J4">
-        <v>99500.0</v>
+        <v>78750.0</v>
       </c>
       <c t="n" r="K4">
-        <v>14331894.0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>157999090.0</v>
+      </c>
+    </row>
+    <row spans="1:11" r="5">
       <c t="s" s="1" r="A5">
         <v>8</v>
       </c>
@@ -622,59 +622,59 @@
         <v>5422708.0</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row spans="1:11" r="6">
       <c t="s" s="1" r="A6">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c t="n" r="B6">
-        <v>247000.0</v>
+        <v>15936732.0</v>
       </c>
       <c t="n" r="C6">
-        <v>1027500.0</v>
+        <v>5275732.0</v>
       </c>
       <c t="n" r="D6">
-        <v>1722500.0</v>
+        <v>20659718.0</v>
       </c>
       <c t="n" r="E6">
-        <v>293040</v>
+        <v>2714775</v>
       </c>
       <c t="n" r="F6">
-        <v>242500.0</v>
+        <v>3212967.0</v>
       </c>
       <c t="n" r="G6">
-        <v>193000.0</v>
+        <v>2552200.0</v>
       </c>
       <c t="n" r="H6">
-        <v>0.0</v>
+        <v>816667.0</v>
       </c>
       <c t="n" r="I6">
-        <v>192000.0</v>
+        <v>265000.0</v>
       </c>
       <c t="n" r="J6">
-        <v>556000.0</v>
+        <v>39046272.0</v>
       </c>
       <c t="n" r="K6">
-        <v>4473540.0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>90480063.0</v>
+      </c>
+    </row>
+    <row spans="1:11" r="7">
       <c t="s" s="1" r="A7">
         <v>1</v>
       </c>
       <c t="n" r="B7">
-        <v>4741486.0</v>
+        <v>1198834.0</v>
       </c>
       <c t="n" r="C7">
-        <v>1000000.0</v>
+        <v>936300.0</v>
       </c>
       <c t="n" r="D7">
-        <v>0.0</v>
+        <v>10849260.0</v>
       </c>
       <c t="n" r="E7">
-        <v>4900000</v>
+        <v>0</v>
       </c>
       <c t="n" r="F7">
-        <v>0.0</v>
+        <v>1248000.0</v>
       </c>
       <c t="n" r="G7">
         <v>0.0</v>
@@ -686,80 +686,80 @@
         <v>0.0</v>
       </c>
       <c t="n" r="J7">
-        <v>0.0</v>
+        <v>99500.0</v>
       </c>
       <c t="n" r="K7">
-        <v>10641486.0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>14331894.0</v>
+      </c>
+    </row>
+    <row spans="1:11" r="8">
       <c t="s" s="1" r="A8">
+        <v>3</v>
+      </c>
+      <c t="n" r="B8">
+        <v>1419350.0</v>
+      </c>
+      <c t="n" r="C8">
+        <v>1976200.0</v>
+      </c>
+      <c t="n" r="D8">
+        <v>122600.0</v>
+      </c>
+      <c t="n" r="E8">
+        <v>5636060</v>
+      </c>
+      <c t="n" r="F8">
+        <v>3324250.0</v>
+      </c>
+      <c t="n" r="G8">
+        <v>0.0</v>
+      </c>
+      <c t="n" r="H8">
+        <v>0.0</v>
+      </c>
+      <c t="n" r="I8">
+        <v>1032170.0</v>
+      </c>
+      <c t="n" r="J8">
+        <v>4566656.0</v>
+      </c>
+      <c t="n" r="K8">
+        <v>18077286.0</v>
+      </c>
+    </row>
+    <row spans="1:11" r="9">
+      <c t="s" s="1" r="A9">
         <v>14</v>
       </c>
-      <c t="n" r="B8">
+      <c t="n" r="B9">
         <v>6150277.0</v>
       </c>
-      <c t="n" r="C8">
+      <c t="n" r="C9">
         <v>14814746.0</v>
       </c>
-      <c t="n" r="D8">
+      <c t="n" r="D9">
         <v>19226000.0</v>
       </c>
-      <c t="n" r="E8">
+      <c t="n" r="E9">
         <v>5969029</v>
       </c>
-      <c t="n" r="F8">
-        <v>0.0</v>
-      </c>
-      <c t="n" r="G8">
+      <c t="n" r="F9">
+        <v>0.0</v>
+      </c>
+      <c t="n" r="G9">
         <v>10621325.0</v>
       </c>
-      <c t="n" r="H8">
-        <v>0.0</v>
-      </c>
-      <c t="n" r="I8">
-        <v>0.0</v>
-      </c>
-      <c t="n" r="J8">
+      <c t="n" r="H9">
+        <v>0.0</v>
+      </c>
+      <c t="n" r="I9">
+        <v>0.0</v>
+      </c>
+      <c t="n" r="J9">
         <v>488750.0</v>
       </c>
-      <c t="n" r="K8">
+      <c t="n" r="K9">
         <v>57270127.0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c t="s" s="1" r="A9">
-        <v>13</v>
-      </c>
-      <c t="n" r="B9">
-        <v>57739988.0</v>
-      </c>
-      <c t="n" r="C9">
-        <v>34919105.0</v>
-      </c>
-      <c t="n" r="D9">
-        <v>35116527.0</v>
-      </c>
-      <c t="n" r="E9">
-        <v>19571965</v>
-      </c>
-      <c t="n" r="F9">
-        <v>0.0</v>
-      </c>
-      <c t="n" r="G9">
-        <v>10572755.0</v>
-      </c>
-      <c t="n" r="H9">
-        <v>0.0</v>
-      </c>
-      <c t="n" r="I9">
-        <v>0.0</v>
-      </c>
-      <c t="n" r="J9">
-        <v>78750.0</v>
-      </c>
-      <c t="n" r="K9">
-        <v>157999090.0</v>
       </c>
     </row>
   </sheetData>

--- a/1_政策宣傳執情形/輸出圖表/所有部會按媒體類型預算金額.xlsx
+++ b/1_政策宣傳執情形/輸出圖表/所有部會按媒體類型預算金額.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
   <si>
     <t>其他</t>
   </si>
@@ -41,6 +41,9 @@
     <t>教育部</t>
   </si>
   <si>
+    <t>每年平均預算支出</t>
+  </si>
+  <si>
     <t>法務部</t>
   </si>
   <si>
@@ -54,6 +57,9 @@
   </si>
   <si>
     <t>行動</t>
+  </si>
+  <si>
+    <t>資料時間</t>
   </si>
   <si>
     <t>農委會</t>
@@ -425,100 +431,114 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryRight="1" summaryBelow="1"/>
   </sheetPr>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1" activeCell="A1"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col width="9.10" min="1" max="1"/>
-    <col width="9.10" min="2" max="2"/>
-    <col width="9.10" min="3" max="3"/>
-    <col width="9.10" min="4" max="4"/>
-    <col width="9.10" min="5" max="5"/>
-    <col width="9.10" min="6" max="6"/>
-    <col width="9.10" min="7" max="7"/>
-    <col width="9.10" min="8" max="8"/>
-    <col width="9.10" min="9" max="9"/>
-    <col width="9.10" min="10" max="10"/>
-    <col width="9.10" min="11" max="11"/>
+    <col min="1" max="1" width="9.10"/>
+    <col min="2" max="2" width="9.10"/>
+    <col min="3" max="3" width="9.10"/>
+    <col min="4" max="4" width="9.10"/>
+    <col min="5" max="5" width="9.10"/>
+    <col min="6" max="6" width="9.10"/>
+    <col min="7" max="7" width="9.10"/>
+    <col min="8" max="8" width="9.10"/>
+    <col min="9" max="9" width="9.10"/>
+    <col min="10" max="10" width="9.10"/>
+    <col min="11" max="11" width="9.10"/>
+    <col min="12" max="12" width="9.10"/>
+    <col min="13" max="13" width="9.10"/>
   </cols>
   <sheetData>
-    <row spans="1:11" r="1">
-      <c t="s" s="1" r="B1">
+    <row spans="1:13" r="1">
+      <c s="1" t="s" r="B1">
         <v>4</v>
       </c>
-      <c t="s" s="1" r="C1">
-        <v>15</v>
-      </c>
-      <c t="s" s="1" r="D1">
+      <c s="1" t="s" r="C1">
         <v>17</v>
       </c>
-      <c t="s" s="1" r="E1">
+      <c s="1" t="s" r="D1">
+        <v>19</v>
+      </c>
+      <c s="1" t="s" r="E1">
         <v>6</v>
       </c>
-      <c t="s" s="1" r="F1">
+      <c s="1" t="s" r="F1">
+        <v>13</v>
+      </c>
+      <c s="1" t="s" r="G1">
+        <v>11</v>
+      </c>
+      <c s="1" t="s" r="H1">
+        <v>18</v>
+      </c>
+      <c s="1" t="s" r="I1">
+        <v>10</v>
+      </c>
+      <c s="1" t="s" r="J1">
+        <v>0</v>
+      </c>
+      <c s="1" t="s" r="K1">
         <v>12</v>
       </c>
-      <c t="s" s="1" r="G1">
-        <v>10</v>
-      </c>
-      <c t="s" s="1" r="H1">
-        <v>16</v>
-      </c>
-      <c t="s" s="1" r="I1">
-        <v>9</v>
-      </c>
-      <c t="s" s="1" r="J1">
+      <c s="1" t="s" r="L1">
+        <v>14</v>
+      </c>
+      <c s="1" t="s" r="M1">
+        <v>8</v>
+      </c>
+    </row>
+    <row spans="1:13" r="2">
+      <c s="1" t="s" r="A2">
+        <v>1</v>
+      </c>
+      <c t="n" r="B2">
+        <v>1198834.0</v>
+      </c>
+      <c t="n" r="C2">
+        <v>936300.0</v>
+      </c>
+      <c t="n" r="D2">
+        <v>10849260.0</v>
+      </c>
+      <c t="n" r="E2">
         <v>0</v>
       </c>
-      <c t="s" s="1" r="K1">
-        <v>11</v>
+      <c t="n" r="F2">
+        <v>1248000.0</v>
+      </c>
+      <c t="n" r="G2">
+        <v>0.0</v>
+      </c>
+      <c t="n" r="H2">
+        <v>0.0</v>
+      </c>
+      <c t="n" r="I2">
+        <v>0.0</v>
+      </c>
+      <c t="n" r="J2">
+        <v>99500.0</v>
+      </c>
+      <c t="n" r="K2">
+        <v>14331894.0</v>
+      </c>
+      <c t="n" r="L2">
+        <v>13</v>
+      </c>
+      <c t="n" r="M2">
+        <v>13229440.615384614</v>
       </c>
     </row>
-    <row spans="1:11" r="2">
-      <c t="s" s="1" r="A2">
-        <v>5</v>
-      </c>
-      <c t="n" r="B2">
-        <v>3712430.0</v>
-      </c>
-      <c t="n" r="C2">
-        <v>845195.0</v>
-      </c>
-      <c t="n" r="D2">
-        <v>4516432.0</v>
-      </c>
-      <c t="n" r="E2">
-        <v>698232</v>
-      </c>
-      <c t="n" r="F2">
-        <v>5530000.0</v>
-      </c>
-      <c t="n" r="G2">
-        <v>0.0</v>
-      </c>
-      <c t="n" r="H2">
-        <v>1221318.0</v>
-      </c>
-      <c t="n" r="I2">
-        <v>1819752.0</v>
-      </c>
-      <c t="n" r="J2">
-        <v>12706586.0</v>
-      </c>
-      <c t="n" r="K2">
-        <v>31049945.0</v>
-      </c>
-    </row>
-    <row spans="1:11" r="3">
-      <c t="s" s="1" r="A3">
+    <row spans="1:13" r="3">
+      <c s="1" t="s" r="A3">
         <v>2</v>
       </c>
       <c t="n" r="B3">
@@ -551,79 +571,97 @@
       <c t="n" r="K3">
         <v>4473540.0</v>
       </c>
+      <c t="n" r="L3">
+        <v>23</v>
+      </c>
+      <c t="n" r="M3">
+        <v>2334020.8695652173</v>
+      </c>
     </row>
-    <row spans="1:11" r="4">
-      <c t="s" s="1" r="A4">
-        <v>13</v>
+    <row spans="1:13" r="4">
+      <c s="1" t="s" r="A4">
+        <v>3</v>
       </c>
       <c t="n" r="B4">
-        <v>57739988.0</v>
+        <v>1419350.0</v>
       </c>
       <c t="n" r="C4">
-        <v>34919105.0</v>
+        <v>1976200.0</v>
       </c>
       <c t="n" r="D4">
-        <v>35116527.0</v>
+        <v>122600.0</v>
       </c>
       <c t="n" r="E4">
-        <v>19571965</v>
+        <v>5636060</v>
       </c>
       <c t="n" r="F4">
-        <v>0.0</v>
+        <v>3324250.0</v>
       </c>
       <c t="n" r="G4">
-        <v>10572755.0</v>
+        <v>0.0</v>
       </c>
       <c t="n" r="H4">
         <v>0.0</v>
       </c>
       <c t="n" r="I4">
-        <v>0.0</v>
+        <v>1032170.0</v>
       </c>
       <c t="n" r="J4">
-        <v>78750.0</v>
+        <v>4566656.0</v>
       </c>
       <c t="n" r="K4">
-        <v>157999090.0</v>
+        <v>18077286.0</v>
+      </c>
+      <c t="n" r="L4">
+        <v>10</v>
+      </c>
+      <c t="n" r="M4">
+        <v>21692743.200000003</v>
       </c>
     </row>
-    <row spans="1:11" r="5">
-      <c t="s" s="1" r="A5">
-        <v>8</v>
+    <row spans="1:13" r="5">
+      <c s="1" t="s" r="A5">
+        <v>5</v>
       </c>
       <c t="n" r="B5">
-        <v>521100.0</v>
+        <v>3712430.0</v>
       </c>
       <c t="n" r="C5">
-        <v>260000.0</v>
+        <v>845195.0</v>
       </c>
       <c t="n" r="D5">
-        <v>2012000.0</v>
+        <v>4516432.0</v>
       </c>
       <c t="n" r="E5">
-        <v>132358</v>
+        <v>698232</v>
       </c>
       <c t="n" r="F5">
-        <v>523235.0</v>
+        <v>5530000.0</v>
       </c>
       <c t="n" r="G5">
-        <v>686950.0</v>
+        <v>0.0</v>
       </c>
       <c t="n" r="H5">
-        <v>500000.0</v>
+        <v>1221318.0</v>
       </c>
       <c t="n" r="I5">
-        <v>0.0</v>
+        <v>1819752.0</v>
       </c>
       <c t="n" r="J5">
-        <v>787065.0</v>
+        <v>12706586.0</v>
       </c>
       <c t="n" r="K5">
-        <v>5422708.0</v>
+        <v>31049945.0</v>
+      </c>
+      <c t="n" r="L5">
+        <v>24</v>
+      </c>
+      <c t="n" r="M5">
+        <v>15524972.5</v>
       </c>
     </row>
-    <row spans="1:11" r="6">
-      <c t="s" s="1" r="A6">
+    <row spans="1:13" r="6">
+      <c s="1" t="s" r="A6">
         <v>7</v>
       </c>
       <c t="n" r="B6">
@@ -656,80 +694,98 @@
       <c t="n" r="K6">
         <v>90480063.0</v>
       </c>
+      <c t="n" r="L6">
+        <v>24</v>
+      </c>
+      <c t="n" r="M6">
+        <v>45240031.5</v>
+      </c>
     </row>
-    <row spans="1:11" r="7">
-      <c t="s" s="1" r="A7">
-        <v>1</v>
+    <row spans="1:13" r="7">
+      <c s="1" t="s" r="A7">
+        <v>9</v>
       </c>
       <c t="n" r="B7">
-        <v>1198834.0</v>
+        <v>521100.0</v>
       </c>
       <c t="n" r="C7">
-        <v>936300.0</v>
+        <v>260000.0</v>
       </c>
       <c t="n" r="D7">
-        <v>10849260.0</v>
+        <v>2012000.0</v>
       </c>
       <c t="n" r="E7">
-        <v>0</v>
+        <v>132358</v>
       </c>
       <c t="n" r="F7">
-        <v>1248000.0</v>
+        <v>523235.0</v>
       </c>
       <c t="n" r="G7">
-        <v>0.0</v>
+        <v>686950.0</v>
       </c>
       <c t="n" r="H7">
-        <v>0.0</v>
+        <v>500000.0</v>
       </c>
       <c t="n" r="I7">
         <v>0.0</v>
       </c>
       <c t="n" r="J7">
-        <v>99500.0</v>
+        <v>787065.0</v>
       </c>
       <c t="n" r="K7">
-        <v>14331894.0</v>
+        <v>5422708.0</v>
+      </c>
+      <c t="n" r="L7">
+        <v>14</v>
+      </c>
+      <c t="n" r="M7">
+        <v>4648035.428571429</v>
       </c>
     </row>
-    <row spans="1:11" r="8">
-      <c t="s" s="1" r="A8">
-        <v>3</v>
+    <row spans="1:13" r="8">
+      <c s="1" t="s" r="A8">
+        <v>15</v>
       </c>
       <c t="n" r="B8">
-        <v>1419350.0</v>
+        <v>57739988.0</v>
       </c>
       <c t="n" r="C8">
-        <v>1976200.0</v>
+        <v>34919105.0</v>
       </c>
       <c t="n" r="D8">
-        <v>122600.0</v>
+        <v>35116527.0</v>
       </c>
       <c t="n" r="E8">
-        <v>5636060</v>
+        <v>19571965</v>
       </c>
       <c t="n" r="F8">
-        <v>3324250.0</v>
+        <v>0.0</v>
       </c>
       <c t="n" r="G8">
-        <v>0.0</v>
+        <v>10572755.0</v>
       </c>
       <c t="n" r="H8">
         <v>0.0</v>
       </c>
       <c t="n" r="I8">
-        <v>1032170.0</v>
+        <v>0.0</v>
       </c>
       <c t="n" r="J8">
-        <v>4566656.0</v>
+        <v>78750.0</v>
       </c>
       <c t="n" r="K8">
-        <v>18077286.0</v>
+        <v>157999090.0</v>
+      </c>
+      <c t="n" r="L8">
+        <v>24</v>
+      </c>
+      <c t="n" r="M8">
+        <v>78999545.0</v>
       </c>
     </row>
-    <row spans="1:11" r="9">
-      <c t="s" s="1" r="A9">
-        <v>14</v>
+    <row spans="1:13" r="9">
+      <c s="1" t="s" r="A9">
+        <v>16</v>
       </c>
       <c t="n" r="B9">
         <v>6150277.0</v>
@@ -760,6 +816,12 @@
       </c>
       <c t="n" r="K9">
         <v>57270127.0</v>
+      </c>
+      <c t="n" r="L9">
+        <v>24</v>
+      </c>
+      <c t="n" r="M9">
+        <v>28635063.5</v>
       </c>
     </row>
   </sheetData>

--- a/1_政策宣傳執情形/輸出圖表/所有部會按媒體類型預算金額.xlsx
+++ b/1_政策宣傳執情形/輸出圖表/所有部會按媒體類型預算金額.xlsx
@@ -431,7 +431,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryRight="1" summaryBelow="1"/>
   </sheetPr>
@@ -459,368 +459,368 @@
   </cols>
   <sheetData>
     <row spans="1:13" r="1">
-      <c s="1" t="s" r="B1">
+      <c r="B1" t="s" s="1">
         <v>4</v>
       </c>
-      <c s="1" t="s" r="C1">
+      <c r="C1" t="s" s="1">
         <v>17</v>
       </c>
-      <c s="1" t="s" r="D1">
+      <c r="D1" t="s" s="1">
         <v>19</v>
       </c>
-      <c s="1" t="s" r="E1">
+      <c r="E1" t="s" s="1">
         <v>6</v>
       </c>
-      <c s="1" t="s" r="F1">
+      <c r="F1" t="s" s="1">
         <v>13</v>
       </c>
-      <c s="1" t="s" r="G1">
+      <c r="G1" t="s" s="1">
         <v>11</v>
       </c>
-      <c s="1" t="s" r="H1">
+      <c r="H1" t="s" s="1">
         <v>18</v>
       </c>
-      <c s="1" t="s" r="I1">
+      <c r="I1" t="s" s="1">
         <v>10</v>
       </c>
-      <c s="1" t="s" r="J1">
+      <c r="J1" t="s" s="1">
         <v>0</v>
       </c>
-      <c s="1" t="s" r="K1">
+      <c r="K1" t="s" s="1">
         <v>12</v>
       </c>
-      <c s="1" t="s" r="L1">
+      <c r="L1" t="s" s="1">
         <v>14</v>
       </c>
-      <c s="1" t="s" r="M1">
+      <c r="M1" t="s" s="1">
         <v>8</v>
       </c>
     </row>
     <row spans="1:13" r="2">
-      <c s="1" t="s" r="A2">
+      <c r="A2" t="s" s="1">
         <v>1</v>
       </c>
-      <c t="n" r="B2">
+      <c r="B2" t="n">
         <v>1198834.0</v>
       </c>
-      <c t="n" r="C2">
+      <c r="C2" t="n">
         <v>936300.0</v>
       </c>
-      <c t="n" r="D2">
+      <c r="D2" t="n">
         <v>10849260.0</v>
       </c>
-      <c t="n" r="E2">
+      <c r="E2" t="n">
         <v>0</v>
       </c>
-      <c t="n" r="F2">
+      <c r="F2" t="n">
         <v>1248000.0</v>
       </c>
-      <c t="n" r="G2">
-        <v>0.0</v>
-      </c>
-      <c t="n" r="H2">
-        <v>0.0</v>
-      </c>
-      <c t="n" r="I2">
-        <v>0.0</v>
-      </c>
-      <c t="n" r="J2">
+      <c r="G2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J2" t="n">
         <v>99500.0</v>
       </c>
-      <c t="n" r="K2">
+      <c r="K2" t="n">
         <v>14331894.0</v>
       </c>
-      <c t="n" r="L2">
+      <c r="L2" t="n">
         <v>13</v>
       </c>
-      <c t="n" r="M2">
+      <c r="M2" t="n">
         <v>13229440.615384614</v>
       </c>
     </row>
     <row spans="1:13" r="3">
-      <c s="1" t="s" r="A3">
+      <c r="A3" t="s" s="1">
         <v>2</v>
       </c>
-      <c t="n" r="B3">
+      <c r="B3" t="n">
         <v>247000.0</v>
       </c>
-      <c t="n" r="C3">
+      <c r="C3" t="n">
         <v>1027500.0</v>
       </c>
-      <c t="n" r="D3">
+      <c r="D3" t="n">
         <v>1722500.0</v>
       </c>
-      <c t="n" r="E3">
+      <c r="E3" t="n">
         <v>293040</v>
       </c>
-      <c t="n" r="F3">
+      <c r="F3" t="n">
         <v>242500.0</v>
       </c>
-      <c t="n" r="G3">
+      <c r="G3" t="n">
         <v>193000.0</v>
       </c>
-      <c t="n" r="H3">
-        <v>0.0</v>
-      </c>
-      <c t="n" r="I3">
+      <c r="H3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I3" t="n">
         <v>192000.0</v>
       </c>
-      <c t="n" r="J3">
+      <c r="J3" t="n">
         <v>556000.0</v>
       </c>
-      <c t="n" r="K3">
+      <c r="K3" t="n">
         <v>4473540.0</v>
       </c>
-      <c t="n" r="L3">
+      <c r="L3" t="n">
         <v>23</v>
       </c>
-      <c t="n" r="M3">
+      <c r="M3" t="n">
         <v>2334020.8695652173</v>
       </c>
     </row>
     <row spans="1:13" r="4">
-      <c s="1" t="s" r="A4">
+      <c r="A4" t="s" s="1">
         <v>3</v>
       </c>
-      <c t="n" r="B4">
+      <c r="B4" t="n">
         <v>1419350.0</v>
       </c>
-      <c t="n" r="C4">
+      <c r="C4" t="n">
         <v>1976200.0</v>
       </c>
-      <c t="n" r="D4">
+      <c r="D4" t="n">
         <v>122600.0</v>
       </c>
-      <c t="n" r="E4">
+      <c r="E4" t="n">
         <v>5636060</v>
       </c>
-      <c t="n" r="F4">
+      <c r="F4" t="n">
         <v>3324250.0</v>
       </c>
-      <c t="n" r="G4">
-        <v>0.0</v>
-      </c>
-      <c t="n" r="H4">
-        <v>0.0</v>
-      </c>
-      <c t="n" r="I4">
+      <c r="G4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I4" t="n">
         <v>1032170.0</v>
       </c>
-      <c t="n" r="J4">
+      <c r="J4" t="n">
         <v>4566656.0</v>
       </c>
-      <c t="n" r="K4">
+      <c r="K4" t="n">
         <v>18077286.0</v>
       </c>
-      <c t="n" r="L4">
+      <c r="L4" t="n">
         <v>10</v>
       </c>
-      <c t="n" r="M4">
+      <c r="M4" t="n">
         <v>21692743.200000003</v>
       </c>
     </row>
     <row spans="1:13" r="5">
-      <c s="1" t="s" r="A5">
+      <c r="A5" t="s" s="1">
         <v>5</v>
       </c>
-      <c t="n" r="B5">
+      <c r="B5" t="n">
         <v>3712430.0</v>
       </c>
-      <c t="n" r="C5">
+      <c r="C5" t="n">
         <v>845195.0</v>
       </c>
-      <c t="n" r="D5">
+      <c r="D5" t="n">
         <v>4516432.0</v>
       </c>
-      <c t="n" r="E5">
+      <c r="E5" t="n">
         <v>698232</v>
       </c>
-      <c t="n" r="F5">
+      <c r="F5" t="n">
         <v>5530000.0</v>
       </c>
-      <c t="n" r="G5">
-        <v>0.0</v>
-      </c>
-      <c t="n" r="H5">
+      <c r="G5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H5" t="n">
         <v>1221318.0</v>
       </c>
-      <c t="n" r="I5">
+      <c r="I5" t="n">
         <v>1819752.0</v>
       </c>
-      <c t="n" r="J5">
+      <c r="J5" t="n">
         <v>12706586.0</v>
       </c>
-      <c t="n" r="K5">
+      <c r="K5" t="n">
         <v>31049945.0</v>
       </c>
-      <c t="n" r="L5">
+      <c r="L5" t="n">
         <v>24</v>
       </c>
-      <c t="n" r="M5">
+      <c r="M5" t="n">
         <v>15524972.5</v>
       </c>
     </row>
     <row spans="1:13" r="6">
-      <c s="1" t="s" r="A6">
+      <c r="A6" t="s" s="1">
         <v>7</v>
       </c>
-      <c t="n" r="B6">
+      <c r="B6" t="n">
         <v>15936732.0</v>
       </c>
-      <c t="n" r="C6">
+      <c r="C6" t="n">
         <v>5275732.0</v>
       </c>
-      <c t="n" r="D6">
+      <c r="D6" t="n">
         <v>20659718.0</v>
       </c>
-      <c t="n" r="E6">
+      <c r="E6" t="n">
         <v>2714775</v>
       </c>
-      <c t="n" r="F6">
+      <c r="F6" t="n">
         <v>3212967.0</v>
       </c>
-      <c t="n" r="G6">
+      <c r="G6" t="n">
         <v>2552200.0</v>
       </c>
-      <c t="n" r="H6">
+      <c r="H6" t="n">
         <v>816667.0</v>
       </c>
-      <c t="n" r="I6">
+      <c r="I6" t="n">
         <v>265000.0</v>
       </c>
-      <c t="n" r="J6">
+      <c r="J6" t="n">
         <v>39046272.0</v>
       </c>
-      <c t="n" r="K6">
+      <c r="K6" t="n">
         <v>90480063.0</v>
       </c>
-      <c t="n" r="L6">
+      <c r="L6" t="n">
         <v>24</v>
       </c>
-      <c t="n" r="M6">
+      <c r="M6" t="n">
         <v>45240031.5</v>
       </c>
     </row>
     <row spans="1:13" r="7">
-      <c s="1" t="s" r="A7">
+      <c r="A7" t="s" s="1">
         <v>9</v>
       </c>
-      <c t="n" r="B7">
+      <c r="B7" t="n">
         <v>521100.0</v>
       </c>
-      <c t="n" r="C7">
+      <c r="C7" t="n">
         <v>260000.0</v>
       </c>
-      <c t="n" r="D7">
+      <c r="D7" t="n">
         <v>2012000.0</v>
       </c>
-      <c t="n" r="E7">
+      <c r="E7" t="n">
         <v>132358</v>
       </c>
-      <c t="n" r="F7">
+      <c r="F7" t="n">
         <v>523235.0</v>
       </c>
-      <c t="n" r="G7">
+      <c r="G7" t="n">
         <v>686950.0</v>
       </c>
-      <c t="n" r="H7">
+      <c r="H7" t="n">
         <v>500000.0</v>
       </c>
-      <c t="n" r="I7">
-        <v>0.0</v>
-      </c>
-      <c t="n" r="J7">
+      <c r="I7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J7" t="n">
         <v>787065.0</v>
       </c>
-      <c t="n" r="K7">
+      <c r="K7" t="n">
         <v>5422708.0</v>
       </c>
-      <c t="n" r="L7">
+      <c r="L7" t="n">
         <v>14</v>
       </c>
-      <c t="n" r="M7">
+      <c r="M7" t="n">
         <v>4648035.428571429</v>
       </c>
     </row>
     <row spans="1:13" r="8">
-      <c s="1" t="s" r="A8">
+      <c r="A8" t="s" s="1">
         <v>15</v>
       </c>
-      <c t="n" r="B8">
+      <c r="B8" t="n">
         <v>57739988.0</v>
       </c>
-      <c t="n" r="C8">
+      <c r="C8" t="n">
         <v>34919105.0</v>
       </c>
-      <c t="n" r="D8">
+      <c r="D8" t="n">
         <v>35116527.0</v>
       </c>
-      <c t="n" r="E8">
+      <c r="E8" t="n">
         <v>19571965</v>
       </c>
-      <c t="n" r="F8">
-        <v>0.0</v>
-      </c>
-      <c t="n" r="G8">
+      <c r="F8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G8" t="n">
         <v>10572755.0</v>
       </c>
-      <c t="n" r="H8">
-        <v>0.0</v>
-      </c>
-      <c t="n" r="I8">
-        <v>0.0</v>
-      </c>
-      <c t="n" r="J8">
+      <c r="H8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J8" t="n">
         <v>78750.0</v>
       </c>
-      <c t="n" r="K8">
+      <c r="K8" t="n">
         <v>157999090.0</v>
       </c>
-      <c t="n" r="L8">
+      <c r="L8" t="n">
         <v>24</v>
       </c>
-      <c t="n" r="M8">
+      <c r="M8" t="n">
         <v>78999545.0</v>
       </c>
     </row>
     <row spans="1:13" r="9">
-      <c s="1" t="s" r="A9">
+      <c r="A9" t="s" s="1">
         <v>16</v>
       </c>
-      <c t="n" r="B9">
+      <c r="B9" t="n">
         <v>6150277.0</v>
       </c>
-      <c t="n" r="C9">
+      <c r="C9" t="n">
         <v>14814746.0</v>
       </c>
-      <c t="n" r="D9">
+      <c r="D9" t="n">
         <v>19226000.0</v>
       </c>
-      <c t="n" r="E9">
+      <c r="E9" t="n">
         <v>5969029</v>
       </c>
-      <c t="n" r="F9">
-        <v>0.0</v>
-      </c>
-      <c t="n" r="G9">
+      <c r="F9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G9" t="n">
         <v>10621325.0</v>
       </c>
-      <c t="n" r="H9">
-        <v>0.0</v>
-      </c>
-      <c t="n" r="I9">
-        <v>0.0</v>
-      </c>
-      <c t="n" r="J9">
+      <c r="H9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J9" t="n">
         <v>488750.0</v>
       </c>
-      <c t="n" r="K9">
+      <c r="K9" t="n">
         <v>57270127.0</v>
       </c>
-      <c t="n" r="L9">
+      <c r="L9" t="n">
         <v>24</v>
       </c>
-      <c t="n" r="M9">
+      <c r="M9" t="n">
         <v>28635063.5</v>
       </c>
     </row>

--- a/1_政策宣傳執情形/輸出圖表/所有部會按媒體類型預算金額.xlsx
+++ b/1_政策宣傳執情形/輸出圖表/所有部會按媒體類型預算金額.xlsx
@@ -438,66 +438,66 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection sqref="A1" activeCell="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.10"/>
-    <col min="2" max="2" width="9.10"/>
-    <col min="3" max="3" width="9.10"/>
-    <col min="4" max="4" width="9.10"/>
-    <col min="5" max="5" width="9.10"/>
-    <col min="6" max="6" width="9.10"/>
-    <col min="7" max="7" width="9.10"/>
-    <col min="8" max="8" width="9.10"/>
-    <col min="9" max="9" width="9.10"/>
-    <col min="10" max="10" width="9.10"/>
-    <col min="11" max="11" width="9.10"/>
-    <col min="12" max="12" width="9.10"/>
-    <col min="13" max="13" width="9.10"/>
+    <col max="1" width="9.10" min="1"/>
+    <col max="2" width="9.10" min="2"/>
+    <col max="3" width="9.10" min="3"/>
+    <col max="4" width="9.10" min="4"/>
+    <col max="5" width="9.10" min="5"/>
+    <col max="6" width="9.10" min="6"/>
+    <col max="7" width="9.10" min="7"/>
+    <col max="8" width="9.10" min="8"/>
+    <col max="9" width="9.10" min="9"/>
+    <col max="10" width="9.10" min="10"/>
+    <col max="11" width="9.10" min="11"/>
+    <col max="12" width="9.10" min="12"/>
+    <col max="13" width="9.10" min="13"/>
   </cols>
   <sheetData>
     <row spans="1:13" r="1">
-      <c r="B1" t="s" s="1">
+      <c s="1" r="B1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s" s="1">
+      <c s="1" r="C1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c s="1" r="D1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c s="1" r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c s="1" r="F1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" t="s" s="1">
+      <c s="1" r="G1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s" s="1">
+      <c s="1" r="H1" t="s">
         <v>18</v>
       </c>
-      <c r="I1" t="s" s="1">
+      <c s="1" r="I1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" t="s" s="1">
+      <c s="1" r="J1" t="s">
         <v>0</v>
       </c>
-      <c r="K1" t="s" s="1">
+      <c s="1" r="K1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" t="s" s="1">
+      <c s="1" r="L1" t="s">
         <v>14</v>
       </c>
-      <c r="M1" t="s" s="1">
+      <c s="1" r="M1" t="s">
         <v>8</v>
       </c>
     </row>
     <row spans="1:13" r="2">
-      <c r="A2" t="s" s="1">
+      <c s="1" r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="n">
@@ -538,7 +538,7 @@
       </c>
     </row>
     <row spans="1:13" r="3">
-      <c r="A3" t="s" s="1">
+      <c s="1" r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="n">
@@ -579,7 +579,7 @@
       </c>
     </row>
     <row spans="1:13" r="4">
-      <c r="A4" t="s" s="1">
+      <c s="1" r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="n">
@@ -620,7 +620,7 @@
       </c>
     </row>
     <row spans="1:13" r="5">
-      <c r="A5" t="s" s="1">
+      <c s="1" r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="n">
@@ -661,7 +661,7 @@
       </c>
     </row>
     <row spans="1:13" r="6">
-      <c r="A6" t="s" s="1">
+      <c s="1" r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="n">
@@ -702,7 +702,7 @@
       </c>
     </row>
     <row spans="1:13" r="7">
-      <c r="A7" t="s" s="1">
+      <c s="1" r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7" t="n">
@@ -743,7 +743,7 @@
       </c>
     </row>
     <row spans="1:13" r="8">
-      <c r="A8" t="s" s="1">
+      <c s="1" r="A8" t="s">
         <v>15</v>
       </c>
       <c r="B8" t="n">
@@ -784,7 +784,7 @@
       </c>
     </row>
     <row spans="1:13" r="9">
-      <c r="A9" t="s" s="1">
+      <c s="1" r="A9" t="s">
         <v>16</v>
       </c>
       <c r="B9" t="n">
